--- a/biology/Botanique/Félicité_et_Perpétue/Félicité_et_Perpétue.xlsx
+++ b/biology/Botanique/Félicité_et_Perpétue/Félicité_et_Perpétue.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>F%C3%A9licit%C3%A9_et_Perp%C3%A9tue</t>
+          <t>Félicité_et_Perpétue</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 'Félicité et Perpétue' est un cultivar de rosier sélectionné par le pépiniériste français, Jacques. C'est vraisemblablement un hybride de Rosa sempervirens et d'un rosier Noisette. Il doit son nom aux deux filles de son créateur, prénommées Félicité et Perpétue en l'honneur de deux saintes martyrisées à Carthage, Perpétue et Félicité.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>F%C3%A9licit%C3%A9_et_Perp%C3%A9tue</t>
+          <t>Félicité_et_Perpétue</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un rosier grimpant vigoureux, qui peut atteindre 3 à 4 mètres de haut.
-Ses fleurs blanches, ou légèrement colorées en début de floraison (le bouton est rose), très pleines, « à quartiers », sont petites, nombreuses, groupées en corymbes fournis, et parfumées[1]. La floraison n'est pas remontante. Le feuillage est vert clair brillant, presque persistant. Un rabattage trop sévère affecte la floraison[2].
-C'était un des rosiers préférés de Vita Sackville-West dans sa roseraie de Sissinghurst[3].
+Ses fleurs blanches, ou légèrement colorées en début de floraison (le bouton est rose), très pleines, « à quartiers », sont petites, nombreuses, groupées en corymbes fournis, et parfumées. La floraison n'est pas remontante. Le feuillage est vert clair brillant, presque persistant. Un rabattage trop sévère affecte la floraison.
+C'était un des rosiers préférés de Vita Sackville-West dans sa roseraie de Sissinghurst.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>F%C3%A9licit%C3%A9_et_Perp%C3%A9tue</t>
+          <t>Félicité_et_Perpétue</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,9 +559,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1993, ce rosier obtient la distinction Garden of Merit de la Royal Horticultural Society[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1993, ce rosier obtient la distinction Garden of Merit de la Royal Horticultural Society.
 </t>
         </is>
       </c>
